--- a/Mapa e Variaveis.xlsx
+++ b/Mapa e Variaveis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41755\Desktop\Aquela\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41755\Documents\GitHub\eda-survey-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64AD8862-CFC1-4691-889C-09B6FB1D8A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996A510F-0DF3-4266-AEF7-DFB35E576653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC02D431-EB4A-44AF-958D-3E8132F3DA40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC02D431-EB4A-44AF-958D-3E8132F3DA40}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Kaggle</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>(D6) = Cargo anonimizado</t>
+  </si>
+  <si>
+    <t>Q6 For how many years have you been writing code and/or programming?</t>
+  </si>
+  <si>
+    <t>Q7 What programming languages do you use on a regular basis? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>Q8 What programming language would you recommend an aspiring data scientist to learn first?</t>
   </si>
 </sst>
 </file>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8033CE-5FCA-466E-9E8A-A25B66CD2050}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +504,21 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
